--- a/Code/Results/Cases/Case_4_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_202/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.07529862596032</v>
+        <v>9.70568990943505</v>
       </c>
       <c r="C2">
-        <v>9.413649635297528</v>
+        <v>5.38013134452062</v>
       </c>
       <c r="D2">
-        <v>7.158170697619556</v>
+        <v>5.98413062061643</v>
       </c>
       <c r="E2">
-        <v>29.55262745492794</v>
+        <v>16.43976262094679</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.077030673257628</v>
+        <v>3.634250864669381</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.79719115888751</v>
+        <v>20.91557936750216</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.05339979274694</v>
+        <v>9.724716203966702</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.63562471649179</v>
+        <v>18.18580905543253</v>
       </c>
       <c r="O2">
-        <v>16.14783937770972</v>
+        <v>22.68909384462043</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.14849275924272</v>
+        <v>9.383033473804028</v>
       </c>
       <c r="C3">
-        <v>8.804704506148244</v>
+        <v>5.058141228933312</v>
       </c>
       <c r="D3">
-        <v>6.661795493783959</v>
+        <v>5.865213763300594</v>
       </c>
       <c r="E3">
-        <v>27.41037800088161</v>
+        <v>15.51140536638115</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.082799818121696</v>
+        <v>3.636354570984811</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.81054516195593</v>
+        <v>20.98411211858861</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.2489019701667</v>
+        <v>9.496281678414075</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.86103905058899</v>
+        <v>18.24924469246868</v>
       </c>
       <c r="O3">
-        <v>15.91743237855153</v>
+        <v>22.72587309930514</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.54734785572417</v>
+        <v>9.181108907668078</v>
       </c>
       <c r="C4">
-        <v>8.411165541649874</v>
+        <v>4.848741193276935</v>
       </c>
       <c r="D4">
-        <v>6.340100081130641</v>
+        <v>5.792747955805352</v>
       </c>
       <c r="E4">
-        <v>26.03194678041357</v>
+        <v>14.91694087007511</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.086438139825739</v>
+        <v>3.63771358871603</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.83176108863233</v>
+        <v>21.03058583451466</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.72895903444038</v>
+        <v>9.35521212778198</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.00187379489122</v>
+        <v>18.28992947898172</v>
       </c>
       <c r="O4">
-        <v>15.79082653677785</v>
+        <v>22.75399825637059</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.29426608999596</v>
+        <v>9.097999931173433</v>
       </c>
       <c r="C5">
-        <v>8.245829858693243</v>
+        <v>4.760480703275369</v>
       </c>
       <c r="D5">
-        <v>6.211700728303391</v>
+        <v>5.763401468553383</v>
       </c>
       <c r="E5">
-        <v>25.45405332868111</v>
+        <v>14.66881527202015</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.087945863441656</v>
+        <v>3.63828438867105</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.84352060315087</v>
+        <v>21.05062628659826</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.51054844756787</v>
+        <v>9.297608629784202</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.0599125166802</v>
+        <v>18.30694659239406</v>
       </c>
       <c r="O5">
-        <v>15.74287521090595</v>
+        <v>22.76684898986149</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.25175108679358</v>
+        <v>9.084154211303117</v>
       </c>
       <c r="C6">
-        <v>8.218075515226959</v>
+        <v>4.745648727595729</v>
       </c>
       <c r="D6">
-        <v>6.192398790182428</v>
+        <v>5.758540958835388</v>
       </c>
       <c r="E6">
-        <v>25.35710914112887</v>
+        <v>14.62726825883914</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.088197760493771</v>
+        <v>3.638380197368365</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.84565673618546</v>
+        <v>21.05402046112233</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.47388753952404</v>
+        <v>9.288039182176412</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.0695899304866</v>
+        <v>18.30979875138987</v>
       </c>
       <c r="O6">
-        <v>15.73512987688202</v>
+        <v>22.76906663483816</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.54396759713205</v>
+        <v>9.179991216465009</v>
       </c>
       <c r="C7">
-        <v>8.40895589923719</v>
+        <v>4.847562717388568</v>
       </c>
       <c r="D7">
-        <v>6.338291652362177</v>
+        <v>5.792351373415143</v>
       </c>
       <c r="E7">
-        <v>26.02421898136452</v>
+        <v>14.91361795754272</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.086458370787964</v>
+        <v>3.637721217859776</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.83190728175775</v>
+        <v>21.03085164895879</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.72603989663008</v>
+        <v>9.354435621236004</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.00265385731871</v>
+        <v>18.2901572034773</v>
       </c>
       <c r="O7">
-        <v>15.79016523776648</v>
+        <v>22.75416594578405</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.76236667964297</v>
+        <v>9.595307115374315</v>
       </c>
       <c r="C8">
-        <v>9.207744422077123</v>
+        <v>5.271543221790744</v>
       </c>
       <c r="D8">
-        <v>6.990509098605779</v>
+        <v>5.943041273664996</v>
       </c>
       <c r="E8">
-        <v>28.82688022480522</v>
+        <v>16.12488676305872</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.079000517398662</v>
+        <v>3.634962282280517</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.79899728652481</v>
+        <v>20.93829565810788</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.78139774788425</v>
+        <v>9.646171327271023</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.71286608007403</v>
+        <v>18.20732242559192</v>
       </c>
       <c r="O8">
-        <v>16.06525459120181</v>
+        <v>22.70062257398645</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.89936988762029</v>
+        <v>10.37409826290512</v>
       </c>
       <c r="C9">
-        <v>10.61989396681425</v>
+        <v>6.009804477846066</v>
       </c>
       <c r="D9">
-        <v>8.137016633075875</v>
+        <v>6.240930904269886</v>
       </c>
       <c r="E9">
-        <v>33.83739383706656</v>
+        <v>18.36371166574409</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.065092534894053</v>
+        <v>3.630083646805282</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.84501527925351</v>
+        <v>20.79179092441747</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.64546318443391</v>
+        <v>10.20818637094255</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.16208576049761</v>
+        <v>18.05858346619118</v>
       </c>
       <c r="O9">
-        <v>16.7265443151182</v>
+        <v>22.63977201108549</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.31925720922466</v>
+        <v>10.91810892605774</v>
       </c>
       <c r="C10">
-        <v>11.56613893643061</v>
+        <v>6.495176272043225</v>
       </c>
       <c r="D10">
-        <v>8.901128956215281</v>
+        <v>6.458681962629338</v>
       </c>
       <c r="E10">
-        <v>37.24544024737659</v>
+        <v>19.99592572884205</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.055242754004155</v>
+        <v>3.626819718980564</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.95637968732804</v>
+        <v>20.70566452177062</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.89153645704867</v>
+        <v>10.6103514687513</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.76538510800406</v>
+        <v>17.9575609774049</v>
       </c>
       <c r="O10">
-        <v>17.29156098193337</v>
+        <v>22.62218413524824</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.93350095757451</v>
+        <v>11.15833369610568</v>
       </c>
       <c r="C11">
-        <v>11.97755337319004</v>
+        <v>6.703602501833321</v>
       </c>
       <c r="D11">
-        <v>9.23234531773991</v>
+        <v>6.556990468029647</v>
       </c>
       <c r="E11">
-        <v>38.74219097508075</v>
+        <v>20.69649541077402</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.050824923907806</v>
+        <v>3.625403660182611</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.02611488914036</v>
+        <v>20.67119047552665</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.43222094219939</v>
+        <v>10.7900905558676</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.58597874312917</v>
+        <v>17.9133754272418</v>
       </c>
       <c r="O11">
-        <v>17.5667588631286</v>
+        <v>22.62010495170834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.16162715311906</v>
+        <v>11.24817675141734</v>
       </c>
       <c r="C12">
-        <v>12.13068029040472</v>
+        <v>6.780750940032933</v>
       </c>
       <c r="D12">
-        <v>9.355463714159653</v>
+        <v>6.59406992749351</v>
       </c>
       <c r="E12">
-        <v>39.3017941022913</v>
+        <v>20.95578919455757</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.049159491600295</v>
+        <v>3.6248772572974</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.05545164006476</v>
+        <v>20.65881553892313</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.63326583017287</v>
+        <v>10.85762493735932</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.51813299516037</v>
+        <v>17.89689652063512</v>
       </c>
       <c r="O12">
-        <v>17.67365966141967</v>
+        <v>22.62017090001595</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.11269375818099</v>
+        <v>11.22887868352324</v>
       </c>
       <c r="C13">
-        <v>12.0978190544982</v>
+        <v>6.764214692242068</v>
       </c>
       <c r="D13">
-        <v>9.329049701849842</v>
+        <v>6.586091395964607</v>
       </c>
       <c r="E13">
-        <v>39.1815841142337</v>
+        <v>20.90021182098051</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.049517864704908</v>
+        <v>3.624990191333345</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.04900015207999</v>
+        <v>20.66145042876786</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.59013071492317</v>
+        <v>10.84310474598955</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.53274174031077</v>
+        <v>17.90043430792746</v>
       </c>
       <c r="O13">
-        <v>17.65051578984342</v>
+        <v>22.62011872461665</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.95235823254484</v>
+        <v>11.16574812105453</v>
       </c>
       <c r="C14">
-        <v>11.99020422683363</v>
+        <v>6.709985174423282</v>
       </c>
       <c r="D14">
-        <v>9.242520263218386</v>
+        <v>6.560044203442136</v>
       </c>
       <c r="E14">
-        <v>38.78837063673097</v>
+        <v>20.71794766133813</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.050687766774714</v>
+        <v>3.625360156042196</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.02846865001032</v>
+        <v>20.67015874413585</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.44883480370697</v>
+        <v>10.79565761947369</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.58039556334334</v>
+        <v>17.91201463074035</v>
       </c>
       <c r="O14">
-        <v>17.57549930516637</v>
+        <v>22.62009326806575</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.85356785617339</v>
+        <v>11.12693005271912</v>
       </c>
       <c r="C15">
-        <v>11.92394199093341</v>
+        <v>6.676536527643758</v>
       </c>
       <c r="D15">
-        <v>9.189219695490284</v>
+        <v>6.544069134083102</v>
       </c>
       <c r="E15">
-        <v>38.54659696433364</v>
+        <v>20.60552562589411</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.051405294473098</v>
+        <v>3.62558804839467</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.01627961123375</v>
+        <v>20.67558143560236</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.36180704672014</v>
+        <v>10.76652408465433</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.60959494340544</v>
+        <v>17.91914084779379</v>
       </c>
       <c r="O15">
-        <v>17.52990211074099</v>
+        <v>22.62018884123858</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.27848428719608</v>
+        <v>10.90225654085493</v>
       </c>
       <c r="C16">
-        <v>11.53887480531465</v>
+        <v>6.481306227955192</v>
       </c>
       <c r="D16">
-        <v>8.87915771421636</v>
+        <v>6.452238728743106</v>
       </c>
       <c r="E16">
-        <v>37.14658906099473</v>
+        <v>19.94930089601982</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.055532606978036</v>
+        <v>3.626913639938925</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.95222205178451</v>
+        <v>20.70801242456502</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.8556800389498</v>
+        <v>10.59853464967104</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.77712595246584</v>
+        <v>17.96048411146697</v>
       </c>
       <c r="O16">
-        <v>17.27394823981364</v>
+        <v>22.62243933738634</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.9176320073754</v>
+        <v>10.76250832883857</v>
       </c>
       <c r="C17">
-        <v>11.29782026898265</v>
+        <v>6.358370289489897</v>
       </c>
       <c r="D17">
-        <v>8.684783263999535</v>
+        <v>6.395682881018335</v>
       </c>
       <c r="E17">
-        <v>36.27435817498915</v>
+        <v>19.53601195021311</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.058079638935585</v>
+        <v>3.627744409470302</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.91794226464024</v>
+        <v>20.72911510147369</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.53852750342172</v>
+        <v>10.49460723753775</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.88012996752222</v>
+        <v>17.98629927453722</v>
       </c>
       <c r="O17">
-        <v>17.12163600806855</v>
+        <v>22.6253380561877</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.70709319383962</v>
+        <v>10.68145089941419</v>
       </c>
       <c r="C18">
-        <v>11.15737545919549</v>
+        <v>6.286496131434742</v>
       </c>
       <c r="D18">
-        <v>8.571439108585803</v>
+        <v>6.363085367934743</v>
       </c>
       <c r="E18">
-        <v>35.76759578489946</v>
+        <v>19.29435021196187</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.059550644120355</v>
+        <v>3.628228717418808</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.90000954594242</v>
+        <v>20.74169551156212</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.35364309614311</v>
+        <v>10.43453272419326</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.93947835658195</v>
+        <v>18.00131416161299</v>
       </c>
       <c r="O18">
-        <v>17.03573554753372</v>
+        <v>22.62756262489162</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.63529319238105</v>
+        <v>10.65389248025605</v>
       </c>
       <c r="C19">
-        <v>11.10951267618339</v>
+        <v>6.261960738472835</v>
       </c>
       <c r="D19">
-        <v>8.532795886204546</v>
+        <v>6.352037981932088</v>
       </c>
       <c r="E19">
-        <v>35.59512757912496</v>
+        <v>19.21184846491654</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.060049779495314</v>
+        <v>3.628393808862826</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.89423861720264</v>
+        <v>20.74603096436198</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.29061906379346</v>
+        <v>10.41414345156722</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.9595921653237</v>
+        <v>18.00642661403693</v>
       </c>
       <c r="O19">
-        <v>17.0069417618152</v>
+        <v>22.62841147959111</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.95635384797328</v>
+        <v>10.77745555853408</v>
       </c>
       <c r="C20">
-        <v>11.32366639429398</v>
+        <v>6.371577564894014</v>
       </c>
       <c r="D20">
-        <v>8.70563431917857</v>
+        <v>6.401710693461841</v>
       </c>
       <c r="E20">
-        <v>36.36773062533686</v>
+        <v>19.58041571645919</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.057807890666082</v>
+        <v>3.627655303271611</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.92140541532469</v>
+        <v>20.72682284459621</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.57254381086379</v>
+        <v>10.50570185809698</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.86915475014785</v>
+        <v>17.98353396442957</v>
       </c>
       <c r="O20">
-        <v>17.13767284691477</v>
+        <v>22.62497178922064</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.9995734315166</v>
+        <v>11.18432223641361</v>
       </c>
       <c r="C21">
-        <v>12.02188507888276</v>
+        <v>6.725961939310878</v>
       </c>
       <c r="D21">
-        <v>9.267998230805741</v>
+        <v>6.567699217907517</v>
       </c>
       <c r="E21">
-        <v>38.90405748197324</v>
+        <v>20.77164555044142</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.050343947569921</v>
+        <v>3.625251222140981</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.03441824178282</v>
+        <v>20.66758243204838</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.49043673118123</v>
+        <v>10.80960885882545</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.5663965043821</v>
+        <v>17.90860634797118</v>
       </c>
       <c r="O21">
-        <v>17.59745984747344</v>
+        <v>22.62007757602846</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.65533874029958</v>
+        <v>11.44364491020238</v>
       </c>
       <c r="C22">
-        <v>12.46270651134144</v>
+        <v>6.947210154783163</v>
       </c>
       <c r="D22">
-        <v>9.622119528546101</v>
+        <v>6.675303501507739</v>
       </c>
       <c r="E22">
-        <v>40.52010728559857</v>
+        <v>21.51524466694413</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.045508736324309</v>
+        <v>3.623737275659634</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.12544298131198</v>
+        <v>20.632828175569</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.06879880730525</v>
+        <v>11.00511898206737</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.36902779048171</v>
+        <v>17.86111206263874</v>
       </c>
       <c r="O22">
-        <v>17.91367185198149</v>
+        <v>22.6218529580928</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.30769880050387</v>
+        <v>11.30586718619612</v>
       </c>
       <c r="C23">
-        <v>12.2288247958854</v>
+        <v>6.830073307317326</v>
       </c>
       <c r="D23">
-        <v>9.434328636345739</v>
+        <v>6.617966222419068</v>
       </c>
       <c r="E23">
-        <v>39.66120787065029</v>
+        <v>21.12155781006186</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.048086004420231</v>
+        <v>3.624540075818667</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.07522841676806</v>
+        <v>20.65101360759187</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.76206349363862</v>
+        <v>10.90107720271721</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.47434276878594</v>
+        <v>17.88632611038789</v>
       </c>
       <c r="O23">
-        <v>17.74343915559376</v>
+        <v>22.62044984624725</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.9388573033725</v>
+        <v>10.77070013454662</v>
       </c>
       <c r="C24">
-        <v>11.31198715772293</v>
+        <v>6.365610283124251</v>
       </c>
       <c r="D24">
-        <v>8.696212531083107</v>
+        <v>6.398985774296471</v>
       </c>
       <c r="E24">
-        <v>36.32553350380161</v>
+        <v>19.56035341174463</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.057930727129841</v>
+        <v>3.627695567348268</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.91983420968446</v>
+        <v>20.72785777796176</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.55717298293188</v>
+        <v>10.50068698802531</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.87411623650673</v>
+        <v>17.98478362082744</v>
       </c>
       <c r="O24">
-        <v>17.13041740898619</v>
+        <v>22.62513564024555</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.34791046435006</v>
+        <v>10.1679379515202</v>
       </c>
       <c r="C25">
-        <v>10.25412698372711</v>
+        <v>5.820093588982659</v>
       </c>
       <c r="D25">
-        <v>7.840784190999049</v>
+        <v>6.160358700950209</v>
       </c>
       <c r="E25">
-        <v>32.5316615209573</v>
+        <v>17.73209670724076</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.068785000824635</v>
+        <v>3.631346915082076</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.81969214277484</v>
+        <v>20.82765925251361</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.16303865199315</v>
+        <v>10.05771799338562</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.30947961099205</v>
+        <v>18.09736456564332</v>
       </c>
       <c r="O25">
-        <v>16.53407750762833</v>
+        <v>22.65148412119424</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_202/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.70568990943505</v>
+        <v>14.07529862596039</v>
       </c>
       <c r="C2">
-        <v>5.38013134452062</v>
+        <v>9.413649635297514</v>
       </c>
       <c r="D2">
-        <v>5.98413062061643</v>
+        <v>7.1581706976196</v>
       </c>
       <c r="E2">
-        <v>16.43976262094679</v>
+        <v>29.55262745492804</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.634250864669381</v>
+        <v>2.077030673257092</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.91557936750216</v>
+        <v>13.79719115888732</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.724716203966702</v>
+        <v>13.05339979274696</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.18580905543253</v>
+        <v>11.63562471649165</v>
       </c>
       <c r="O2">
-        <v>22.68909384462043</v>
+        <v>16.14783937770956</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.383033473804028</v>
+        <v>13.14849275924281</v>
       </c>
       <c r="C3">
-        <v>5.058141228933312</v>
+        <v>8.804704506148152</v>
       </c>
       <c r="D3">
-        <v>5.865213763300594</v>
+        <v>6.661795493784002</v>
       </c>
       <c r="E3">
-        <v>15.51140536638115</v>
+        <v>27.4103780008817</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.636354570984811</v>
+        <v>2.082799818121429</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.98411211858861</v>
+        <v>13.81054516195582</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.496281678414075</v>
+        <v>12.24890197016672</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.24924469246868</v>
+        <v>11.86103905058896</v>
       </c>
       <c r="O3">
-        <v>22.72587309930514</v>
+        <v>15.9174323785515</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.181108907668078</v>
+        <v>12.54734785572425</v>
       </c>
       <c r="C4">
-        <v>4.848741193276935</v>
+        <v>8.411165541649909</v>
       </c>
       <c r="D4">
-        <v>5.792747955805352</v>
+        <v>6.340100081130625</v>
       </c>
       <c r="E4">
-        <v>14.91694087007511</v>
+        <v>26.03194678041356</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.63771358871603</v>
+        <v>2.086438139825737</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.03058583451466</v>
+        <v>13.83176108863227</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.35521212778198</v>
+        <v>11.72895903444044</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.28992947898172</v>
+        <v>12.00187379489122</v>
       </c>
       <c r="O4">
-        <v>22.75399825637059</v>
+        <v>15.79082653677781</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.097999931173433</v>
+        <v>12.29426608999598</v>
       </c>
       <c r="C5">
-        <v>4.760480703275369</v>
+        <v>8.24582985869324</v>
       </c>
       <c r="D5">
-        <v>5.763401468553383</v>
+        <v>6.211700728303399</v>
       </c>
       <c r="E5">
-        <v>14.66881527202015</v>
+        <v>25.45405332868115</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.63828438867105</v>
+        <v>2.087945863441924</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.05062628659826</v>
+        <v>13.84352060315097</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.297608629784202</v>
+        <v>11.51054844756783</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.30694659239406</v>
+        <v>12.05991251668027</v>
       </c>
       <c r="O5">
-        <v>22.76684898986149</v>
+        <v>15.74287521090612</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.084154211303117</v>
+        <v>12.25175108679355</v>
       </c>
       <c r="C6">
-        <v>4.745648727595729</v>
+        <v>8.21807551522696</v>
       </c>
       <c r="D6">
-        <v>5.758540958835388</v>
+        <v>6.192398790182437</v>
       </c>
       <c r="E6">
-        <v>14.62726825883914</v>
+        <v>25.3571091411289</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.638380197368365</v>
+        <v>2.088197760493771</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.05402046112233</v>
+        <v>13.84565673618552</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.288039182176412</v>
+        <v>11.47388753952403</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.30979875138987</v>
+        <v>12.0695899304866</v>
       </c>
       <c r="O6">
-        <v>22.76906663483816</v>
+        <v>15.73512987688208</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.179991216465009</v>
+        <v>12.54396759713202</v>
       </c>
       <c r="C7">
-        <v>4.847562717388568</v>
+        <v>8.408955899237393</v>
       </c>
       <c r="D7">
-        <v>5.792351373415143</v>
+        <v>6.338291652362137</v>
       </c>
       <c r="E7">
-        <v>14.91361795754272</v>
+        <v>26.0242189813646</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.637721217859776</v>
+        <v>2.086458370788632</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.03085164895879</v>
+        <v>13.83190728175799</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.354435621236004</v>
+        <v>11.72603989663009</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.2901572034773</v>
+        <v>12.00265385731885</v>
       </c>
       <c r="O7">
-        <v>22.75416594578405</v>
+        <v>15.79016523776663</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.595307115374315</v>
+        <v>13.76236667964297</v>
       </c>
       <c r="C8">
-        <v>5.271543221790744</v>
+        <v>9.207744422076972</v>
       </c>
       <c r="D8">
-        <v>5.943041273664996</v>
+        <v>6.990509098605813</v>
       </c>
       <c r="E8">
-        <v>16.12488676305872</v>
+        <v>28.82688022480516</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.634962282280517</v>
+        <v>2.079000517398527</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.93829565810788</v>
+        <v>13.79899728652491</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.646171327271023</v>
+        <v>12.78139774788421</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.20732242559192</v>
+        <v>11.71286608007406</v>
       </c>
       <c r="O8">
-        <v>22.70062257398645</v>
+        <v>16.06525459120195</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.37409826290512</v>
+        <v>15.89936988762022</v>
       </c>
       <c r="C9">
-        <v>6.009804477846066</v>
+        <v>10.61989396681431</v>
       </c>
       <c r="D9">
-        <v>6.240930904269886</v>
+        <v>8.137016633075927</v>
       </c>
       <c r="E9">
-        <v>18.36371166574409</v>
+        <v>33.8373938370667</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.630083646805282</v>
+        <v>2.065092534893785</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.79179092441747</v>
+        <v>13.84501527925359</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.20818637094255</v>
+        <v>14.64546318443386</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.05858346619118</v>
+        <v>11.16208576049764</v>
       </c>
       <c r="O9">
-        <v>22.63977201108549</v>
+        <v>16.72654431511828</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.91810892605774</v>
+        <v>17.31925720922469</v>
       </c>
       <c r="C10">
-        <v>6.495176272043225</v>
+        <v>11.56613893643045</v>
       </c>
       <c r="D10">
-        <v>6.458681962629338</v>
+        <v>8.901128956215272</v>
       </c>
       <c r="E10">
-        <v>19.99592572884205</v>
+        <v>37.24544024737659</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.626819718980564</v>
+        <v>2.055242754004156</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.70566452177062</v>
+        <v>13.95637968732805</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.6103514687513</v>
+        <v>15.89153645704865</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.9575609774049</v>
+        <v>10.76538510800406</v>
       </c>
       <c r="O10">
-        <v>22.62218413524824</v>
+        <v>17.29156098193338</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.15833369610568</v>
+        <v>17.93350095757451</v>
       </c>
       <c r="C11">
-        <v>6.703602501833321</v>
+        <v>11.9775533731901</v>
       </c>
       <c r="D11">
-        <v>6.556990468029647</v>
+        <v>9.232345317739757</v>
       </c>
       <c r="E11">
-        <v>20.69649541077402</v>
+        <v>38.74219097508063</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.625403660182611</v>
+        <v>2.050824923907806</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.67119047552665</v>
+        <v>14.02611488914041</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.7900905558676</v>
+        <v>16.43222094219939</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.9133754272418</v>
+        <v>10.58597874312924</v>
       </c>
       <c r="O11">
-        <v>22.62010495170834</v>
+        <v>17.5667588631286</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.24817675141734</v>
+        <v>18.16162715311908</v>
       </c>
       <c r="C12">
-        <v>6.780750940032933</v>
+        <v>12.13068029040481</v>
       </c>
       <c r="D12">
-        <v>6.59406992749351</v>
+        <v>9.355463714159653</v>
       </c>
       <c r="E12">
-        <v>20.95578919455757</v>
+        <v>39.3017941022913</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.6248772572974</v>
+        <v>2.049159491600428</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.65881553892313</v>
+        <v>14.05545164006477</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.85762493735932</v>
+        <v>16.63326583017292</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.89689652063512</v>
+        <v>10.51813299516037</v>
       </c>
       <c r="O12">
-        <v>22.62017090001595</v>
+        <v>17.67365966141968</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.22887868352324</v>
+        <v>18.11269375818099</v>
       </c>
       <c r="C13">
-        <v>6.764214692242068</v>
+        <v>12.09781905449817</v>
       </c>
       <c r="D13">
-        <v>6.586091395964607</v>
+        <v>9.329049701849909</v>
       </c>
       <c r="E13">
-        <v>20.90021182098051</v>
+        <v>39.18158411423362</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.624990191333345</v>
+        <v>2.049517864704909</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.66145042876786</v>
+        <v>14.04900015207999</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.84310474598955</v>
+        <v>16.59013071492316</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.90043430792746</v>
+        <v>10.53274174031077</v>
       </c>
       <c r="O13">
-        <v>22.62011872461665</v>
+        <v>17.65051578984341</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.16574812105453</v>
+        <v>17.95235823254493</v>
       </c>
       <c r="C14">
-        <v>6.709985174423282</v>
+        <v>11.99020422683367</v>
       </c>
       <c r="D14">
-        <v>6.560044203442136</v>
+        <v>9.242520263218454</v>
       </c>
       <c r="E14">
-        <v>20.71794766133813</v>
+        <v>38.78837063673109</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.625360156042196</v>
+        <v>2.050687766774848</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.67015874413585</v>
+        <v>14.0284686500102</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.79565761947369</v>
+        <v>16.44883480370705</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.91201463074035</v>
+        <v>10.58039556334324</v>
       </c>
       <c r="O14">
-        <v>22.62009326806575</v>
+        <v>17.57549930516629</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.12693005271912</v>
+        <v>17.85356785617336</v>
       </c>
       <c r="C15">
-        <v>6.676536527643758</v>
+        <v>11.92394199093337</v>
       </c>
       <c r="D15">
-        <v>6.544069134083102</v>
+        <v>9.189219695490268</v>
       </c>
       <c r="E15">
-        <v>20.60552562589411</v>
+        <v>38.54659696433364</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.62558804839467</v>
+        <v>2.05140529447283</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.67558143560236</v>
+        <v>14.01627961123381</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.76652408465433</v>
+        <v>16.36180704672007</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.91914084779379</v>
+        <v>10.60959494340547</v>
       </c>
       <c r="O15">
-        <v>22.62018884123858</v>
+        <v>17.52990211074107</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.90225654085493</v>
+        <v>17.27848428719618</v>
       </c>
       <c r="C16">
-        <v>6.481306227955192</v>
+        <v>11.53887480531463</v>
       </c>
       <c r="D16">
-        <v>6.452238728743106</v>
+        <v>8.879157714216383</v>
       </c>
       <c r="E16">
-        <v>19.94930089601982</v>
+        <v>37.14658906099476</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.626913639938925</v>
+        <v>2.055532606978036</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.70801242456502</v>
+        <v>13.95222205178443</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.59853464967104</v>
+        <v>15.85568003894987</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.96048411146697</v>
+        <v>10.77712595246578</v>
       </c>
       <c r="O16">
-        <v>22.62243933738634</v>
+        <v>17.27394823981358</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.76250832883857</v>
+        <v>16.91763200737537</v>
       </c>
       <c r="C17">
-        <v>6.358370289489897</v>
+        <v>11.2978202689827</v>
       </c>
       <c r="D17">
-        <v>6.395682881018335</v>
+        <v>8.684783263999572</v>
       </c>
       <c r="E17">
-        <v>19.53601195021311</v>
+        <v>36.27435817498907</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.627744409470302</v>
+        <v>2.058079638935721</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.72911510147369</v>
+        <v>13.91794226464041</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.49460723753775</v>
+        <v>15.53852750342168</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.98629927453722</v>
+        <v>10.88012996752232</v>
       </c>
       <c r="O17">
-        <v>22.6253380561877</v>
+        <v>17.12163600806868</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.68145089941419</v>
+        <v>16.70709319383968</v>
       </c>
       <c r="C18">
-        <v>6.286496131434742</v>
+        <v>11.15737545919551</v>
       </c>
       <c r="D18">
-        <v>6.363085367934743</v>
+        <v>8.571439108585748</v>
       </c>
       <c r="E18">
-        <v>19.29435021196187</v>
+        <v>35.76759578489943</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.628228717418808</v>
+        <v>2.059550644120353</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.74169551156212</v>
+        <v>13.90000954594238</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.43453272419326</v>
+        <v>15.35364309614314</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.00131416161299</v>
+        <v>10.93947835658192</v>
       </c>
       <c r="O18">
-        <v>22.62756262489162</v>
+        <v>17.03573554753372</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.65389248025605</v>
+        <v>16.63529319238108</v>
       </c>
       <c r="C19">
-        <v>6.261960738472835</v>
+        <v>11.10951267618343</v>
       </c>
       <c r="D19">
-        <v>6.352037981932088</v>
+        <v>8.532795886204504</v>
       </c>
       <c r="E19">
-        <v>19.21184846491654</v>
+        <v>35.5951275791249</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.628393808862826</v>
+        <v>2.060049779495047</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.74603096436198</v>
+        <v>13.89423861720281</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.41414345156722</v>
+        <v>15.29061906379349</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.00642661403693</v>
+        <v>10.9595921653238</v>
       </c>
       <c r="O19">
-        <v>22.62841147959111</v>
+        <v>17.00694176181531</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.77745555853408</v>
+        <v>16.95635384797326</v>
       </c>
       <c r="C20">
-        <v>6.371577564894014</v>
+        <v>11.32366639429405</v>
       </c>
       <c r="D20">
-        <v>6.401710693461841</v>
+        <v>8.705634319178552</v>
       </c>
       <c r="E20">
-        <v>19.58041571645919</v>
+        <v>36.36773062533691</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.627655303271611</v>
+        <v>2.057807890666213</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.72682284459621</v>
+        <v>13.92140541532469</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.50570185809698</v>
+        <v>15.57254381086382</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.98353396442957</v>
+        <v>10.86915475014785</v>
       </c>
       <c r="O20">
-        <v>22.62497178922064</v>
+        <v>17.13767284691476</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.18432223641361</v>
+        <v>17.99957343151654</v>
       </c>
       <c r="C21">
-        <v>6.725961939310878</v>
+        <v>12.0218850788828</v>
       </c>
       <c r="D21">
-        <v>6.567699217907517</v>
+        <v>9.267998230805787</v>
       </c>
       <c r="E21">
-        <v>20.77164555044142</v>
+        <v>38.90405748197325</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.625251222140981</v>
+        <v>2.050343947569654</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.66758243204838</v>
+        <v>14.03441824178283</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.80960885882545</v>
+        <v>16.49043673118125</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.90860634797118</v>
+        <v>10.56639650438203</v>
       </c>
       <c r="O21">
-        <v>22.62007757602846</v>
+        <v>17.59745984747343</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.44364491020238</v>
+        <v>18.65533874029963</v>
       </c>
       <c r="C22">
-        <v>6.947210154783163</v>
+        <v>12.46270651134149</v>
       </c>
       <c r="D22">
-        <v>6.675303501507739</v>
+        <v>9.622119528546131</v>
       </c>
       <c r="E22">
-        <v>21.51524466694413</v>
+        <v>40.52010728559858</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.623737275659634</v>
+        <v>2.045508736324311</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.632828175569</v>
+        <v>14.12544298131195</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.00511898206737</v>
+        <v>17.06879880730527</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.86111206263874</v>
+        <v>10.36902779048167</v>
       </c>
       <c r="O22">
-        <v>22.6218529580928</v>
+        <v>17.91367185198146</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.30586718619612</v>
+        <v>18.30769880050379</v>
       </c>
       <c r="C23">
-        <v>6.830073307317326</v>
+        <v>12.22882479588545</v>
       </c>
       <c r="D23">
-        <v>6.617966222419068</v>
+        <v>9.434328636345807</v>
       </c>
       <c r="E23">
-        <v>21.12155781006186</v>
+        <v>39.6612078706503</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.624540075818667</v>
+        <v>2.048086004420232</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.65101360759187</v>
+        <v>14.07522841676807</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.90107720271721</v>
+        <v>16.76206349363861</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.88632611038789</v>
+        <v>10.47434276878588</v>
       </c>
       <c r="O23">
-        <v>22.62044984624725</v>
+        <v>17.74343915559374</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.77070013454662</v>
+        <v>16.93885730337249</v>
       </c>
       <c r="C24">
-        <v>6.365610283124251</v>
+        <v>11.31198715772306</v>
       </c>
       <c r="D24">
-        <v>6.398985774296471</v>
+        <v>8.696212531083191</v>
       </c>
       <c r="E24">
-        <v>19.56035341174463</v>
+        <v>36.32553350380159</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.627695567348268</v>
+        <v>2.057930727129573</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.72785777796176</v>
+        <v>13.91983420968444</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.50068698802531</v>
+        <v>15.55717298293191</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.98478362082744</v>
+        <v>10.8741162365067</v>
       </c>
       <c r="O24">
-        <v>22.62513564024555</v>
+        <v>17.13041740898615</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.1679379515202</v>
+        <v>15.34791046435007</v>
       </c>
       <c r="C25">
-        <v>5.820093588982659</v>
+        <v>10.25412698372708</v>
       </c>
       <c r="D25">
-        <v>6.160358700950209</v>
+        <v>7.840784190999051</v>
       </c>
       <c r="E25">
-        <v>17.73209670724076</v>
+        <v>32.5316615209573</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.631346915082076</v>
+        <v>2.068785000824636</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.82765925251361</v>
+        <v>13.81969214277485</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.05771799338562</v>
+        <v>14.16303865199315</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.09736456564332</v>
+        <v>11.30947961099205</v>
       </c>
       <c r="O25">
-        <v>22.65148412119424</v>
+        <v>16.53407750762835</v>
       </c>
     </row>
   </sheetData>
